--- a/biology/Botanique/Jardins_du_Fleuriste_du_Stuyvenberg/Jardins_du_Fleuriste_du_Stuyvenberg.xlsx
+++ b/biology/Botanique/Jardins_du_Fleuriste_du_Stuyvenberg/Jardins_du_Fleuriste_du_Stuyvenberg.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Jardins du Fleuriste du Stuyvenberg est un  jardin public à vocation didactique et démonstrative situé à Bruxelles.
@@ -512,11 +524,13 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">C'est une propriété de la donation royale et le gestionnaire est actuellement Bruxelles Environnement-IBGE.
 Les jardins ont été créés au XIXe siècle par le roi Léopold II de Belgique en rachetant les terrains qui bordaient le domaine du Stuyvenberg. Ces jardins comprenaient un verger, un parc colonial voué à la culture et l'acclimatation des plantes provenant du Congo, un jardin d'agrément dessiné par le paysagiste Élie Lainé et des serres dues à l'architecte Henri Maquet pour les fleurs d'ornement des demeures royales. Le fruitier royal deviendra le parc Sobieski.
-Les travaux sont terminés en 1900. À la mort de Léopold II, en 1909, les jardins reviennent à la Donation royale qui les utilise comme pépinière des parcs et jardins de Bruxelles[1]. En 1978, la Donation royale les cède à l'État belge.
+Les travaux sont terminés en 1900. À la mort de Léopold II, en 1909, les jardins reviennent à la Donation royale qui les utilise comme pépinière des parcs et jardins de Bruxelles. En 1978, la Donation royale les cède à l'État belge.
 En 1999 leur réhabilitation est décidée.
 Les Jardins du Fleuriste sont voués à l’horticulture depuis le règne de Léopold II. Le jardin d’agrément, dessiné par l’architecte paysagiste Élie Lainé à la fin du XIXe siècle, occupait la terrasse supérieure en prolongation du domaine royal du Stuyvenberg et surplombait les serres construites par l’architecte Henri Maquet sur la terrasse inférieure. Les serres du Stuyvenberg existent toujours mais sont délabrées.
 En 1999, Bruxelles – Environnement décide d’exploiter cet espace alors en friche pour créer un parc public à vocation didactique et de l’intégrer dans sa politique de maillage vert.  L’aménagement aux formes contemporaines qui laisse apparaître une discrète réinterprétation de la mémoire des lieux a été redessiné par le paysagiste Axel DEMONTY de l'IBGE.
@@ -548,7 +562,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Il a une superficie de 4 hectares 44 ares et a été réhabilité suivant le plan original, gardant son entourage d'arbres formant un sous-bois mais développé en une succession de jardins avec les deux bassins mais plus petits que ceux d'origine et deux belvédères.
 Le site s’ouvre sur la ville par une frange boisée. Les jardins sont structurés de la lisière vers l’axe central, du plus spontané au plus horticole, avant d’accompagner le regard vers le panorama. Des mises en scène variées offrent une perception tantôt globale sur un belvédère, tantôt locale dans les atmosphères des sous jardins. 
@@ -588,7 +604,9 @@
           <t>Localisation</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">L'accès se fait soit par le parc Sobieski, l'avenue Jean Sobieski à Laeken, soit par l’avenue des Robiniers, soit par la rue Médori.
 Métro Stuyvenbergh
@@ -621,7 +639,9 @@
           <t>Exposition</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Les jardins du Fleuriste du Stuyvenberg sont le lieu d'une exposition de mobilier contemporain.
 Il s'agit des mobiliers lauréats des éditions 2006 et 2007 de l'appel à projet Parck Design.
@@ -665,6 +685,8 @@
         </is>
       </c>
       <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
